--- a/Retail Wholesale - Restaurants/DRI.xlsx
+++ b/Retail Wholesale - Restaurants/DRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE2FF3-D1B2-4B1A-8D4E-C192B3F3B304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4BACE-39A0-4A87-A293-29E58BCEA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="240" windowWidth="14910" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="205">
   <si>
     <t>Price</t>
   </si>
@@ -348,15 +348,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -423,9 +414,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>FY19</t>
@@ -857,69 +845,6 @@
     <t>1.73%</t>
   </si>
   <si>
-    <t>Individual or Entity</t>
-  </si>
-  <si>
-    <t>Most Recent Transaction</t>
-  </si>
-  <si>
-    <t>Shares Owned as of Transaction Date</t>
-  </si>
-  <si>
-    <t>ATKINS MARGARET SHANDirector</t>
-  </si>
-  <si>
-    <t>Nov 3, 2023</t>
-  </si>
-  <si>
-    <t>BROAD MATTHEW RGeneral Counsel</t>
-  </si>
-  <si>
-    <t>Jan 31, 2024</t>
-  </si>
-  <si>
-    <t>CARDENAS RICARDOChief Executive Officer</t>
-  </si>
-  <si>
-    <t>Dec 26, 2023</t>
-  </si>
-  <si>
-    <t>CONNELLY SUSAN M.Officer</t>
-  </si>
-  <si>
-    <t>Oct 20, 2023</t>
-  </si>
-  <si>
-    <t>FOGARTY JAMES PATRICKDirector</t>
-  </si>
-  <si>
-    <t>Dec 29, 2023</t>
-  </si>
-  <si>
-    <t>KING SARAH HOfficer</t>
-  </si>
-  <si>
-    <t>Dec 19, 2023</t>
-  </si>
-  <si>
-    <t>MADONNA JOHN W.Officer</t>
-  </si>
-  <si>
-    <t>Mar 28, 2024</t>
-  </si>
-  <si>
-    <t>MARTIN MELVIN JOHNOfficer</t>
-  </si>
-  <si>
-    <t>MILANES DOUGLAS JOfficer</t>
-  </si>
-  <si>
-    <t>SIMON WILLIAM S. JR.Director</t>
-  </si>
-  <si>
-    <t>Apr 8, 2024</t>
-  </si>
-  <si>
     <t>ATKINS MARGARET SHAN</t>
   </si>
   <si>
@@ -997,6 +922,18 @@
   <si>
     <t>Other accrued Tax</t>
   </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Short-term Debt</t>
+  </si>
 </sst>
 </file>
 
@@ -1007,7 +944,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,21 +1045,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF232A31"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF232A31"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,12 +1109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1675,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1910,6 +1828,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1967,25 +1886,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2207,40 +2113,40 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Q124</c:v>
@@ -2254,6 +2160,39 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2272.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2448.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2446.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2486.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2786.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2768.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2730.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2727.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2974.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2366,31 +2305,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.0754553339115391E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.4313880820350304E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.13773530973089954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.3813438856659577E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.11630759167654636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9.6842951940478761E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.7690761610796235E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,10 +2967,10 @@
                   <c:v>8.9075804776739265E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>8.7930738572436606E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.8203330411919376E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,40 +3434,40 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Q423</c:v>
+                  <c:v>Q424</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Q124</c:v>
@@ -3543,37 +3482,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>230.89999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>193.1999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>246.99999999999972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>281.70000000000073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>193.00000000000026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>187.19999999999982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>286.59999999999962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>315.09999999999866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>194.49999999999966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>212.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>312.90000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3693,37 +3632,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21964440589765832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19729777308335528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.20490832618726773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.20684620999654246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.18539716283062835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17804142368791476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.20985571746464715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.21758757674250584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.20424082619204564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.20173798262017384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.21702299314239604</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4773,37 +4712,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
+                  <c:v>Q124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Q223</c:v>
+                  <c:v>Q224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Q323</c:v>
+                  <c:v>Q324</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4815,37 +4754,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.03642671292281E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.6382360707684186E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.110702764506513E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.7605747435552644E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.2387065124075058E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.2507540719887392E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0121312181465796E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0364752618273744E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.4136087306819015E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.3529864701352985E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.0656178566626326E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4960,37 +4899,37 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.9002601908065914E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.0357362908194708E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.4015272163011964E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.2732721195589523E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.6098278892931608E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.6356324150412227E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.8403560404852488E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.6258577103647542E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.6141507361019562E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.2092912404209287E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.6372193088610998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -5114,31 +5053,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.5517170974723344E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.9153636328710263E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.003188749437881E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-3.5391112004826064E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.6658531332998353E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5005417118093212E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.1352816230865012E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.749972500274997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.344628210299852E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -22309,10 +22248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N51"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22333,60 +22272,60 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="20">
         <v>45405</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I3" s="10">
         <v>2114</v>
       </c>
       <c r="J3" s="39"/>
       <c r="L3" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -22396,23 +22335,23 @@
         <v>0.78888888888888886</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I4" s="10">
         <v>19141</v>
       </c>
       <c r="J4" s="39"/>
       <c r="L4" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -22420,23 +22359,23 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="I5" s="10">
         <v>51454</v>
       </c>
       <c r="J5" s="39"/>
       <c r="L5" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -22448,23 +22387,23 @@
         <v>155.72999999999999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="I6" s="10">
         <v>6453</v>
       </c>
       <c r="J6" s="39"/>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -22472,25 +22411,28 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15">
+        <f>Model!V20</f>
+        <v>120.4</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="I7" s="10">
         <v>24215</v>
       </c>
       <c r="J7" s="39"/>
       <c r="L7" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -22500,26 +22442,26 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>0</v>
+        <v>18749.892</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="I8" s="10">
         <v>325</v>
       </c>
       <c r="J8" s="39"/>
       <c r="L8" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -22528,27 +22470,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!F24</f>
-        <v>9.8940809968847424E-2</v>
+        <f>Model!V36</f>
+        <v>243.9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I9" s="10">
         <v>6884</v>
       </c>
       <c r="J9" s="39"/>
       <c r="L9" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -22557,56 +22499,56 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F35+Model!F39</f>
-        <v>562</v>
+        <f>Model!V49+Model!V56</f>
+        <v>1531.5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="I10" s="10">
         <v>14108</v>
       </c>
       <c r="J10" s="39"/>
       <c r="L10" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>-561.90105919003111</v>
+        <v>-1287.5999999999999</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="I11" s="10">
         <v>5458</v>
       </c>
       <c r="J11" s="39"/>
       <c r="L11" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -22616,36 +22558,36 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>561.90105919003111</v>
+        <v>20037.491999999998</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="I12">
         <v>6281</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="36" t="e">
-        <f>C6/Model!#REF!</f>
-        <v>#REF!</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="36">
+        <f>C6/Model!G21</f>
+        <v>19.492022609227021</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -22654,11 +22596,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!G13</f>
-        <v>0.12958062905641546</v>
+        <f>C6/Model!H22</f>
+        <v>17.596610169491527</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -22672,425 +22614,259 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="36" t="e">
-        <f>C6/Model!H13</f>
-        <v>#DIV/0!</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="36">
+        <f>C6/Model!I22</f>
+        <v>16.188149688149689</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>Model!G13/Model!#REF!-1</f>
-        <v>#REF!</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6">
+        <f>Model!H22/Model!G21-1</f>
+        <v>0.10771463489153765</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H13/Model!G13-1</f>
-        <v>-1</v>
+        <f>Model!I22/Model!H22-1</f>
+        <v>8.7005649717514011E-2</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
+        <v>53</v>
+      </c>
+      <c r="L17" s="127"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="52" t="e">
+        <v>68</v>
+      </c>
+      <c r="C18" s="52">
         <f>C14/(C16*100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+        <v>1.6336322531483569</v>
+      </c>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="132"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="52" t="e">
+        <v>69</v>
+      </c>
+      <c r="C19" s="52">
         <f>C15/(C17*100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
+        <v>1.8605860355860382</v>
+      </c>
+      <c r="L19" s="130"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="132"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="6">
+        <f>Model!H4/Model!G3-1</f>
+        <v>8.7930738572436606E-2</v>
+      </c>
+      <c r="L20" s="130"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="6" t="e">
-        <f>Model!#REF!/Model!#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="6">
+        <f>Model!I4/Model!H4-1</f>
+        <v>4.8203330411919376E-2</v>
+      </c>
+      <c r="L21" s="130"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="132"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="15" t="e">
-        <f>Model!F9+Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="131"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="15">
+        <f>Model!G13+Model!G11</f>
+        <v>1589.5999999999992</v>
+      </c>
+      <c r="L22" s="130"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="132"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F9</f>
-        <v>93.2</v>
-      </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="131"/>
+        <f>Model!G16</f>
+        <v>1120.4999999999993</v>
+      </c>
+      <c r="L23" s="130"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="132"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F14</f>
-        <v>68.7</v>
-      </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
+        <f>Model!G23</f>
+        <v>0.19864985983714389</v>
+      </c>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F15</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+        <f>Model!G24</f>
+        <v>9.3623066801426361E-2</v>
+      </c>
+      <c r="L25" s="130"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="132"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>6.0289813217814494</v>
-      </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="131"/>
+        <v>17.882634538152619</v>
+      </c>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="122" t="e">
-        <f>Model!Q39/Model!Q43</f>
-        <v>#DIV/0!</v>
+        <v>83</v>
+      </c>
+      <c r="C27" s="122">
+        <f>(Model!V49+Model!V56)/Model!V61</f>
+        <v>0.70223302306387336</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="131"/>
+        <v>72</v>
+      </c>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="132"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="36" t="e">
-        <f>C22/-Model!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
+        <v>84</v>
+      </c>
+      <c r="C28" s="36">
+        <f>C22/Model!G14</f>
+        <v>19.55227552275522</v>
+      </c>
+      <c r="L28" s="133"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="135"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="36" t="e">
-        <f>Model!#REF!/Model!Q38</f>
-        <v>#REF!</v>
+        <v>85</v>
+      </c>
+      <c r="C29" s="36">
+        <f>Model!V41/Model!V55</f>
+        <v>0.38567153670128496</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="36" t="e">
-        <f>(Model!Q24+Model!Q25)/Model!Q38</f>
-        <v>#DIV/0!</v>
+        <v>86</v>
+      </c>
+      <c r="C30" s="36">
+        <f>(Model!V36+Model!U37)/Model!V55</f>
+        <v>0.14266854427037493</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="6" t="e">
-        <f>(Model!#REF!-Model!Q38)/Model!Q34</f>
-        <v>#REF!</v>
+        <v>87</v>
+      </c>
+      <c r="C31" s="6">
+        <f>(Model!V41-Model!V55)/Model!V47</f>
+        <v>-0.12290679861245624</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="36">
+        <f>(Model!V47-Model!V60)/C7</f>
+        <v>18.113787375415264</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="36">
+        <f>Model!G8/Model!G47</f>
+        <v>0.82062197920226543</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="39">
+        <f>Model!G19/Model!G47</f>
+        <v>9.5874627740077073E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="39">
+        <f>Model!G19/Model!G61</f>
+        <v>0.44601408130819864</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="36" t="e">
-        <f>(Model!Q34-Model!Q42)/Main!C7</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="36" t="e">
-        <f>Model!#REF!/Model!Q34</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="39" t="e">
-        <f>Model!Q11/Model!Q34</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="39" t="e">
-        <f>Model!Q11/Model!Q43</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="C36" s="23"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="146" t="s">
-        <v>180</v>
-      </c>
-      <c r="G41" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="146" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="148" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="147">
-        <v>2114</v>
-      </c>
-      <c r="G42" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="147">
-        <v>2.1139999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="148" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="147">
-        <v>19141</v>
-      </c>
-      <c r="G43" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43" s="147">
-        <v>19.140999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="148" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="147">
-        <v>51454</v>
-      </c>
-      <c r="G44" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" s="147">
-        <v>51.454000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="147">
-        <v>6453</v>
-      </c>
-      <c r="G45" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="147">
-        <v>6.4530000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="147">
-        <v>24215</v>
-      </c>
-      <c r="G46" s="147" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="147">
-        <v>24.215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="148" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="147">
-        <v>325</v>
-      </c>
-      <c r="G47" s="147" t="s">
-        <v>193</v>
-      </c>
-      <c r="H47" s="147">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="148" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="147">
-        <v>6884</v>
-      </c>
-      <c r="G48" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" s="147">
-        <v>6.8840000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="148" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" s="147">
-        <v>14108</v>
-      </c>
-      <c r="G49" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="147">
-        <v>14.108000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="147">
-        <v>5458</v>
-      </c>
-      <c r="G50" s="147" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="147">
-        <v>5.4580000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="147">
-        <v>6281</v>
-      </c>
-      <c r="G51" s="147" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="147">
-        <v>6.2809999999999997</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L17:N28"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1" display="https://finance.yahoo.com/screener/insider/ATKINS MARGARET SHAN" xr:uid="{2C92C764-135F-4B76-9F9E-104D92386AF0}"/>
-    <hyperlink ref="E43" r:id="rId2" display="https://finance.yahoo.com/screener/insider/BROAD MATTHEW R" xr:uid="{F9805F98-01A6-4586-AE01-D08F6A341ED4}"/>
-    <hyperlink ref="E44" r:id="rId3" display="https://finance.yahoo.com/screener/insider/CARDENAS RICARDO" xr:uid="{C9EE3F7E-117F-4749-8C60-5EFFC48FF0FA}"/>
-    <hyperlink ref="E45" r:id="rId4" display="https://finance.yahoo.com/screener/insider/CONNELLY SUSAN M." xr:uid="{BA288FE7-DF54-432F-ACA8-83FC1DF24E92}"/>
-    <hyperlink ref="E46" r:id="rId5" display="https://finance.yahoo.com/screener/insider/FOGARTY JAMES PATRICK" xr:uid="{71CD062D-0771-48B0-A76C-E042C329ACC0}"/>
-    <hyperlink ref="E47" r:id="rId6" display="https://finance.yahoo.com/screener/insider/KING SARAH H" xr:uid="{67DB64AF-2B91-42F7-9049-8CF9A95767E0}"/>
-    <hyperlink ref="E48" r:id="rId7" display="https://finance.yahoo.com/screener/insider/MADONNA JOHN W." xr:uid="{23EDB4B3-F6F6-4749-B2D7-98533A32659B}"/>
-    <hyperlink ref="E49" r:id="rId8" display="https://finance.yahoo.com/screener/insider/MARTIN MELVIN JOHN" xr:uid="{31A54737-C325-4E05-84E6-E9618D2EEE8A}"/>
-    <hyperlink ref="E50" r:id="rId9" display="https://finance.yahoo.com/screener/insider/MILANES DOUGLAS J" xr:uid="{825F36B6-803C-4807-80D3-20287A161FF7}"/>
-    <hyperlink ref="E51" r:id="rId10" display="https://finance.yahoo.com/screener/insider/SIMON WILLIAM S. JR." xr:uid="{146B774D-FBAA-4498-B4FA-6DCB91E36BCA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId11"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23103,7 +22879,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E1" s="12">
         <v>44347</v>
@@ -23114,118 +22890,182 @@
       <c r="G1" s="20">
         <v>45077</v>
       </c>
+      <c r="L1" s="12">
+        <v>44439</v>
+      </c>
+      <c r="M1" s="12">
+        <v>44530</v>
+      </c>
+      <c r="N1" s="12">
+        <v>44620</v>
+      </c>
+      <c r="O1" s="12">
+        <v>44712</v>
+      </c>
+      <c r="P1" s="12">
+        <v>44804</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>44895</v>
+      </c>
+      <c r="R1" s="12">
+        <v>44985</v>
+      </c>
+      <c r="S1" s="12">
+        <v>45077</v>
+      </c>
+      <c r="T1" s="12">
+        <v>45169</v>
+      </c>
+      <c r="U1" s="12">
+        <v>45260</v>
+      </c>
+      <c r="V1" s="12">
+        <v>45350</v>
+      </c>
+      <c r="W1" s="20">
+        <v>45443</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="150">
+      <c r="C3" s="10">
         <v>8510.4</v>
       </c>
-      <c r="D3" s="150">
+      <c r="D3" s="10">
         <v>7806.9</v>
       </c>
-      <c r="E3" s="150">
+      <c r="E3" s="10">
         <v>7196.1</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="10">
         <v>9630</v>
       </c>
-      <c r="G3" s="151">
+      <c r="G3" s="15">
         <v>10487.8</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="150"/>
+      <c r="L3" s="10">
+        <v>2306</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2272.1999999999998</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2448.9</v>
+      </c>
+      <c r="O3" s="10">
+        <f>F3-N3-M3-L3</f>
+        <v>2602.9000000000005</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2446.1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2486.5</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2786.2</v>
+      </c>
+      <c r="S3" s="10">
+        <f>G3-R3-Q3-P3</f>
+        <v>2768.9999999999995</v>
+      </c>
+      <c r="T3" s="10">
+        <v>2730.6</v>
+      </c>
+      <c r="U3" s="10">
+        <v>2727.3</v>
+      </c>
+      <c r="V3" s="10">
+        <v>2974.8</v>
+      </c>
+      <c r="W3" s="15"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="43">
+        <v>11410</v>
+      </c>
+      <c r="I4" s="43">
+        <v>11960</v>
+      </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
@@ -23243,7 +23083,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C5" s="10">
         <v>2412.5</v>
@@ -23260,26 +23100,50 @@
       <c r="G5" s="15">
         <v>3355.9</v>
       </c>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="L5" s="41">
+        <v>685.4</v>
+      </c>
+      <c r="M5" s="41">
+        <v>694.1</v>
+      </c>
+      <c r="N5" s="41">
+        <v>752.7</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" ref="O5:O7" si="0">F5-N5-M5-L5</f>
+        <v>811.39999999999975</v>
+      </c>
+      <c r="P5" s="41">
+        <v>795.3</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>818.3</v>
+      </c>
+      <c r="R5" s="41">
+        <v>887</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5:S7" si="1">G5-R5-Q5-P5</f>
+        <v>855.30000000000018</v>
+      </c>
+      <c r="T5" s="41">
+        <v>851</v>
+      </c>
+      <c r="U5" s="41">
+        <v>845.8</v>
+      </c>
+      <c r="V5" s="41">
+        <v>920.2</v>
+      </c>
       <c r="W5" s="15"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C6" s="10">
         <v>2771.1</v>
@@ -23296,26 +23160,50 @@
       <c r="G6" s="15">
         <v>3346.3</v>
       </c>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="L6" s="41">
+        <v>736</v>
+      </c>
+      <c r="M6" s="41">
+        <v>744.8</v>
+      </c>
+      <c r="N6" s="41">
+        <v>798.7</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
+        <v>829.30000000000041</v>
+      </c>
+      <c r="P6" s="41">
+        <v>793.8</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>808.5</v>
+      </c>
+      <c r="R6" s="41">
+        <v>874.2</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="1"/>
+        <v>869.80000000000041</v>
+      </c>
+      <c r="T6" s="41">
+        <v>875.3</v>
+      </c>
+      <c r="U6" s="41">
+        <v>880.9</v>
+      </c>
+      <c r="V6" s="41">
+        <v>937.1</v>
+      </c>
       <c r="W6" s="15"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="41"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10">
         <v>1477.8</v>
@@ -23332,115 +23220,139 @@
       <c r="G7" s="15">
         <v>1702.2</v>
       </c>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="L7" s="41">
+        <v>378.1</v>
+      </c>
+      <c r="M7" s="41">
+        <v>385</v>
+      </c>
+      <c r="N7" s="41">
+        <v>395.7</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="0"/>
+        <v>423.79999999999984</v>
+      </c>
+      <c r="P7" s="41">
+        <v>403.5</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>417</v>
+      </c>
+      <c r="R7" s="41">
+        <v>440.3</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="1"/>
+        <v>441.40000000000009</v>
+      </c>
+      <c r="T7" s="41">
+        <v>446.6</v>
+      </c>
+      <c r="U7" s="41">
+        <v>450.4</v>
+      </c>
+      <c r="V7" s="41">
+        <v>471.9</v>
+      </c>
       <c r="W7" s="15"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="41"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="11">
-        <f>SUM(C5:C7)</f>
+        <f t="shared" ref="C8:I8" si="2">SUM(C5:C7)</f>
         <v>6661.4000000000005</v>
       </c>
       <c r="D8" s="11">
-        <f>SUM(D5:D7)</f>
+        <f t="shared" si="2"/>
         <v>6398.5</v>
       </c>
       <c r="E8" s="11">
-        <f>SUM(E5:E7)</f>
+        <f t="shared" si="2"/>
         <v>5702.5999999999995</v>
       </c>
       <c r="F8" s="11">
-        <f>SUM(F5:F7)</f>
+        <f t="shared" si="2"/>
         <v>7635</v>
       </c>
       <c r="G8" s="14">
-        <f>SUM(G5:G7)</f>
+        <f t="shared" si="2"/>
         <v>8404.4000000000015</v>
       </c>
       <c r="H8" s="11">
-        <f>SUM(H5:H7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="11">
-        <f>SUM(I5:I7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>SUM(L5:L7)</f>
+        <f t="shared" ref="L8:Y8" si="3">SUM(L5:L7)</f>
+        <v>1799.5</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="3"/>
+        <v>1823.9</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="3"/>
+        <v>1947.1000000000001</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="3"/>
+        <v>2064.5</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="3"/>
+        <v>1992.6</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="3"/>
+        <v>2043.8</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="3"/>
+        <v>2201.5</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="3"/>
+        <v>2166.5000000000009</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="3"/>
+        <v>2172.9</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="3"/>
+        <v>2177.1</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="3"/>
+        <v>2329.2000000000003</v>
+      </c>
+      <c r="W8" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="11">
-        <f>SUM(M5:M7)</f>
+      <c r="X8" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="11">
-        <f>SUM(N5:N7)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <f>SUM(O5:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <f>SUM(P5:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <f>SUM(Q5:Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <f>SUM(R5:R7)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <f>SUM(S5:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <f>SUM(T5:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <f>SUM(U5:U7)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <f>SUM(V5:V7)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <f>SUM(W5:W7)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <f>SUM(X5:X7)</f>
-        <v>0</v>
-      </c>
       <c r="Y8" s="11">
-        <f>SUM(Y5:Y7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C9" s="10">
         <v>255.3</v>
@@ -23459,22 +23371,46 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="L9" s="10">
+        <v>23.9</v>
+      </c>
+      <c r="M9" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="N9" s="10">
+        <v>27.2</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" ref="O9:O12" si="4">F9-N9-M9-L9</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="P9" s="10">
+        <v>30.3</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>31.1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>28.2</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" ref="S9:S12" si="5">G9-R9-Q9-P9</f>
+        <v>28.699999999999992</v>
+      </c>
+      <c r="T9" s="10">
+        <v>38.6</v>
+      </c>
+      <c r="U9" s="10">
+        <v>36.9</v>
+      </c>
+      <c r="V9" s="10">
+        <v>31.7</v>
+      </c>
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" s="10">
         <v>405.5</v>
@@ -23493,22 +23429,46 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="L10" s="10">
+        <v>113</v>
+      </c>
+      <c r="M10" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="N10" s="10">
+        <v>83.3</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="4"/>
+        <v>85.199999999999989</v>
+      </c>
+      <c r="P10" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>90.4</v>
+      </c>
+      <c r="R10" s="10">
+        <v>107</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="5"/>
+        <v>100.40000000000002</v>
+      </c>
+      <c r="T10" s="10">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="U10" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="V10" s="10">
+        <v>108.2</v>
+      </c>
       <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10">
         <v>336.7</v>
@@ -23527,22 +23487,46 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="L11" s="10">
+        <v>89</v>
+      </c>
+      <c r="M11" s="10">
+        <v>92.1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="4"/>
+        <v>92.999999999999972</v>
+      </c>
+      <c r="P11" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="R11" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="5"/>
+        <v>97.1</v>
+      </c>
+      <c r="T11" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="U11" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="V11" s="10">
+        <v>117.9</v>
+      </c>
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C12" s="10">
         <v>19</v>
@@ -23564,111 +23548,131 @@
       <c r="I12" s="41"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
+      <c r="N12" s="10">
+        <v>-3.8</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="P12" s="10">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="T12" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="U12" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0.4</v>
+      </c>
       <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11">
-        <f>C3-SUM(C8:C12)</f>
+        <f t="shared" ref="C13:I13" si="6">C3-SUM(C8:C12)</f>
         <v>832.49999999999909</v>
       </c>
       <c r="D13" s="11">
-        <f>D3-SUM(D8:D12)</f>
+        <f t="shared" si="6"/>
         <v>47.900000000000546</v>
       </c>
       <c r="E13" s="11">
-        <f>E3-SUM(E8:E12)</f>
+        <f t="shared" si="6"/>
         <v>648.70000000000073</v>
       </c>
       <c r="F13" s="11">
-        <f>F3-SUM(F8:F12)</f>
+        <f t="shared" si="6"/>
         <v>1162.2000000000007</v>
       </c>
       <c r="G13" s="14">
-        <f>G3-SUM(G8:G12)</f>
+        <f t="shared" si="6"/>
         <v>1201.7999999999993</v>
       </c>
       <c r="H13" s="11">
-        <f>H3-SUM(H8:H12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <f>I3-SUM(I8:I12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11">
-        <f>L3-SUM(L8:L12)</f>
+        <f t="shared" ref="L13:Y13" si="7">L3-SUM(L8:L12)</f>
+        <v>280.59999999999991</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="7"/>
+        <v>242.59999999999968</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="7"/>
+        <v>300.79999999999973</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="7"/>
+        <v>338.20000000000073</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="7"/>
+        <v>244.20000000000027</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="7"/>
+        <v>233.19999999999982</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="7"/>
+        <v>349.89999999999964</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="7"/>
+        <v>374.49999999999864</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="7"/>
+        <v>252.89999999999964</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="7"/>
+        <v>278.5</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="7"/>
+        <v>387.40000000000009</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
-        <f>M3-SUM(M8:M12)</f>
+      <c r="X13" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N13" s="11">
-        <f>N3-SUM(N8:N12)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <f>O3-SUM(O8:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <f>P3-SUM(P8:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <f>Q3-SUM(Q8:Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <f>R3-SUM(R8:R12)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <f>S3-SUM(S8:S12)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <f>T3-SUM(T8:T12)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <f>U3-SUM(U8:U12)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <f>V3-SUM(V8:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <f>W3-SUM(W8:W12)</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <f>X3-SUM(X8:X12)</f>
-        <v>0</v>
-      </c>
       <c r="Y13" s="11">
-        <f>Y3-SUM(Y8:Y12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C14" s="10">
         <v>50.2</v>
@@ -23687,22 +23691,46 @@
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="L14" s="10">
+        <v>15.6</v>
+      </c>
+      <c r="M14" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="N14" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="O14" s="10">
+        <f>F14-N14-M14-L14</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P14" s="10">
+        <v>19.8</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>19.8</v>
+      </c>
+      <c r="R14" s="10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="S14" s="10">
+        <f>G14-R14-Q14-P14</f>
+        <v>22.099999999999991</v>
+      </c>
+      <c r="T14" s="10">
+        <v>29.7</v>
+      </c>
+      <c r="U14" s="10">
+        <v>37.1</v>
+      </c>
+      <c r="V14" s="10">
+        <v>36.5</v>
+      </c>
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
@@ -23728,7 +23756,10 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="S15" s="10">
+        <f>G15-R15-Q15-P15</f>
+        <v>0</v>
+      </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -23736,7 +23767,7 @@
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11">
         <f>C13-SUM(C14:C15)</f>
@@ -23759,73 +23790,73 @@
         <v>1120.4999999999993</v>
       </c>
       <c r="H16" s="11">
-        <f>H13+SUM(H14:H15)</f>
+        <f>H13-SUM(H14:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f>I13+SUM(I14:I15)</f>
+        <f>I13-SUM(I14:I15)</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>L13+SUM(L14:L15)</f>
+        <f>L13-SUM(L14:L15)</f>
+        <v>264.99999999999989</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16:Y16" si="8">M13-SUM(M14:M15)</f>
+        <v>225.89999999999969</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="8"/>
+        <v>283.29999999999973</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="8"/>
+        <v>319.30000000000075</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="8"/>
+        <v>224.40000000000026</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="8"/>
+        <v>213.39999999999981</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="8"/>
+        <v>330.29999999999961</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="8"/>
+        <v>352.39999999999867</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="8"/>
+        <v>223.19999999999965</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="8"/>
+        <v>241.4</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="8"/>
+        <v>350.90000000000009</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <f>M13+SUM(M14:M15)</f>
+      <c r="X16" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
-        <f>N13+SUM(N14:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <f>O13+SUM(O14:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <f>P13+SUM(P14:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <f>Q13+SUM(Q14:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <f>R13+SUM(R14:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <f>S13+SUM(S14:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
-        <f>T13+SUM(T14:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <f>U13+SUM(U14:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <f>V13+SUM(V14:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <f>W13+SUM(W14:W15)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="11">
-        <f>X13+SUM(X14:X15)</f>
-        <v>0</v>
-      </c>
       <c r="Y16" s="11">
-        <f>Y13+SUM(Y14:Y15)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="10">
         <v>63.7</v>
@@ -23844,22 +23875,46 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
+      <c r="L17" s="10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M17" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="N17" s="10">
+        <v>35.4</v>
+      </c>
+      <c r="O17" s="10">
+        <f>F17-N17-M17-L17</f>
+        <v>37.600000000000009</v>
+      </c>
+      <c r="P17" s="10">
+        <v>30.8</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>25.9</v>
+      </c>
+      <c r="R17" s="10">
+        <v>43.5</v>
+      </c>
+      <c r="S17" s="10">
+        <f>G17-R17-Q17-P17</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T17" s="10">
+        <v>28.4</v>
+      </c>
+      <c r="U17" s="10">
+        <v>29.1</v>
+      </c>
+      <c r="V17" s="10">
+        <v>37.5</v>
+      </c>
       <c r="W17" s="15"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C18" s="10">
         <v>5.2</v>
@@ -23878,99 +23933,123 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="L18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="10">
+        <f>F18-N18-M18-L18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="10">
+        <f>G18-R18-Q18-P18</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0.5</v>
+      </c>
       <c r="W18" s="15"/>
     </row>
     <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11">
         <f>C16-SUM(C17:C18)</f>
         <v>713.39999999999907</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19:G19" si="0">D16-SUM(D17:D18)</f>
+        <f t="shared" ref="D19:G19" si="9">D16-SUM(D17:D18)</f>
         <v>-52.399999999999437</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>629.30000000000064</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>952.80000000000064</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>981.8999999999993</v>
       </c>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="L19" s="11">
-        <f t="shared" ref="L19" si="1">L16-SUM(L17:L18)</f>
+        <f t="shared" ref="L19" si="10">L16-SUM(L17:L18)</f>
+        <v>230.89999999999989</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19" si="11">M16-SUM(M17:M18)</f>
+        <v>193.1999999999997</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19" si="12">N16-SUM(N17:N18)</f>
+        <v>246.99999999999972</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" ref="O19" si="13">O16-SUM(O17:O18)</f>
+        <v>281.70000000000073</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" ref="P19" si="14">P16-SUM(P17:P18)</f>
+        <v>193.00000000000026</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" ref="Q19" si="15">Q16-SUM(Q17:Q18)</f>
+        <v>187.19999999999982</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" ref="R19" si="16">R16-SUM(R17:R18)</f>
+        <v>286.59999999999962</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" ref="S19" si="17">S16-SUM(S17:S18)</f>
+        <v>315.09999999999866</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" ref="T19" si="18">T16-SUM(T17:T18)</f>
+        <v>194.49999999999966</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" ref="U19" si="19">U16-SUM(U17:U18)</f>
+        <v>212.1</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" ref="V19" si="20">V16-SUM(V17:V18)</f>
+        <v>312.90000000000009</v>
+      </c>
+      <c r="W19" s="14">
+        <f t="shared" ref="W19" si="21">W16-SUM(W17:W18)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="11">
-        <f t="shared" ref="M19" si="2">M16-SUM(M17:M18)</f>
+      <c r="X19" s="11">
+        <f t="shared" ref="X19" si="22">X16-SUM(X17:X18)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="11">
-        <f t="shared" ref="N19" si="3">N16-SUM(N17:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" ref="O19" si="4">O16-SUM(O17:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <f t="shared" ref="P19" si="5">P16-SUM(P17:P18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
-        <f t="shared" ref="Q19" si="6">Q16-SUM(Q17:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" ref="R19" si="7">R16-SUM(R17:R18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" ref="S19" si="8">S16-SUM(S17:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" ref="T19" si="9">T16-SUM(T17:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
-        <f t="shared" ref="U19" si="10">U16-SUM(U17:U18)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" ref="V19" si="11">V16-SUM(V17:V18)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="14">
-        <f t="shared" ref="W19" si="12">W16-SUM(W17:W18)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="11">
-        <f t="shared" ref="X19" si="13">X16-SUM(X17:X18)</f>
-        <v>0</v>
-      </c>
       <c r="Y19" s="11">
-        <f t="shared" ref="Y19" si="14">Y16-SUM(Y17:Y18)</f>
+        <f t="shared" ref="Y19" si="23">Y16-SUM(Y17:Y18)</f>
         <v>0</v>
       </c>
     </row>
@@ -23995,24 +24074,48 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="L20" s="10">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="M20" s="10">
+        <v>130.5</v>
+      </c>
+      <c r="N20" s="10">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="O20" s="10">
+        <f>128.2</f>
+        <v>128.19999999999999</v>
+      </c>
+      <c r="P20" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>123.1</v>
+      </c>
+      <c r="R20" s="10">
+        <v>122.5</v>
+      </c>
+      <c r="S20" s="10">
+        <f>G20</f>
+        <v>122.9</v>
+      </c>
+      <c r="T20" s="10">
+        <v>122</v>
+      </c>
+      <c r="U20" s="10">
+        <v>120.8</v>
+      </c>
+      <c r="V20" s="10">
+        <v>120.4</v>
+      </c>
       <c r="W20" s="15"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
     </row>
     <row r="21" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <f>C19/C20</f>
@@ -24036,32 +24139,72 @@
       </c>
       <c r="H21" s="58"/>
       <c r="I21" s="59"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="49"/>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:U21" si="24">L19/L20</f>
+        <v>1.7532270311313585</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.4804597701149402</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.9266770670826812</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="24"/>
+        <v>2.1973478939157625</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.5577078288942716</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.5207148659626306</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="24"/>
+        <v>2.3395918367346908</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="24"/>
+        <v>2.56387306753457</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.5942622950819645</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.755794701986755</v>
+      </c>
+      <c r="V21" s="2">
+        <f>V19/V20</f>
+        <v>2.5988372093023262</v>
+      </c>
+      <c r="W21" s="35" t="e">
+        <f>W19/W20</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X21" s="50"/>
       <c r="Y21" s="50"/>
     </row>
     <row r="22" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="44">
+        <v>8.85</v>
+      </c>
+      <c r="I22" s="45">
+        <v>9.6199999999999992</v>
+      </c>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -24079,7 +24222,7 @@
     </row>
     <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <f>1-C8/C3</f>
@@ -24103,58 +24246,58 @@
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
-      <c r="L23" s="3" t="e">
-        <f>1-L8/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="3" t="e">
-        <f>1-M8/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="3" t="e">
-        <f>1-N8/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="3" t="e">
-        <f>1-O8/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="3" t="e">
-        <f>1-P8/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="3" t="e">
-        <f>1-Q8/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="3" t="e">
-        <f>1-R8/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="3" t="e">
-        <f>1-S8/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="3" t="e">
-        <f>1-T8/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="3" t="e">
-        <f>1-U8/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="3" t="e">
-        <f>1-V8/V3</f>
-        <v>#DIV/0!</v>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:W23" si="25">1-L8/L3</f>
+        <v>0.21964440589765832</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.19729777308335528</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20490832618726773</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20684620999654246</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.18539716283062835</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.17804142368791476</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20985571746464715</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.21758757674250584</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20424082619204564</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20173798262017384</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="25"/>
+        <v>0.21702299314239604</v>
       </c>
       <c r="W23" s="6" t="e">
-        <f>1-W8/W3</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <f>C19/C3</f>
@@ -24176,66 +24319,66 @@
         <f>G19/G3</f>
         <v>9.3623066801426361E-2</v>
       </c>
-      <c r="H24" s="47" t="e">
+      <c r="H24" s="47">
         <f>H19/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="I24" s="47">
         <f>I19/I4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="4" t="e">
-        <f>L19/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="4" t="e">
-        <f>M19/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="4" t="e">
-        <f>N19/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f>O19/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" s="4" t="e">
-        <f>P19/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="4" t="e">
-        <f>Q19/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="4" t="e">
-        <f>R19/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="4" t="e">
-        <f>S19/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f>T19/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f>U19/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="4" t="e">
-        <f>V19/V3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:W24" si="26">L19/L3</f>
+        <v>0.1001300954032957</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="26"/>
+        <v>8.502772643253223E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="26"/>
+        <v>0.10086161133570162</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="26"/>
+        <v>0.10822544085443185</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="26"/>
+        <v>7.8901107886022753E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="26"/>
+        <v>7.5286547355720823E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="26"/>
+        <v>0.102864116000287</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="26"/>
+        <v>0.11379559407728375</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="26"/>
+        <v>7.1229766351717447E-2</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="26"/>
+        <v>7.7769222307776914E-2</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="26"/>
+        <v>0.10518354175070595</v>
       </c>
       <c r="W24" s="7" t="e">
-        <f>W19/W3</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -24256,60 +24399,60 @@
       </c>
       <c r="H25" s="48">
         <f>H4/G3-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="48" t="e">
+        <v>8.7930738572436606E-2</v>
+      </c>
+      <c r="I25" s="48">
         <f>I4/H4-1</f>
-        <v>#DIV/0!</v>
+        <v>4.8203330411919376E-2</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="e">
-        <f>P3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="4" t="e">
-        <f>Q3/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="4" t="e">
-        <f>R3/N3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="4" t="e">
-        <f>S3/O3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f>T3/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f>U3/Q3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="4" t="e">
-        <f>V3/R3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="7" t="e">
-        <f>W3/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X25" s="37" t="e">
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:W25" si="27">P3/L3-1</f>
+        <v>6.0754553339115391E-2</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="27"/>
+        <v>9.4313880820350304E-2</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="27"/>
+        <v>0.13773530973089954</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="27"/>
+        <v>6.3813438856659577E-2</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="27"/>
+        <v>0.11630759167654636</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="27"/>
+        <v>9.6842951940478761E-2</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="27"/>
+        <v>6.7690761610796235E-2</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="X25" s="37">
         <f>X4/T3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y25" s="37" t="e">
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="37">
         <f>Y4/U3-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4">
         <f>C9/C3</f>
@@ -24333,59 +24476,59 @@
       </c>
       <c r="H26" s="123"/>
       <c r="I26" s="123"/>
-      <c r="L26" s="4" t="e">
-        <f>L9/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="4" t="e">
-        <f>M9/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="4" t="e">
-        <f>N9/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="4" t="e">
-        <f>O9/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="4" t="e">
-        <f>P9/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="4" t="e">
-        <f>Q9/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="4" t="e">
-        <f>R9/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="4" t="e">
-        <f>S9/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="4" t="e">
-        <f>T9/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="4" t="e">
-        <f>U9/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="4" t="e">
-        <f>V9/V3</f>
-        <v>#DIV/0!</v>
+      <c r="L26" s="4">
+        <f t="shared" ref="L26:W26" si="28">L9/L3</f>
+        <v>1.03642671292281E-2</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="28"/>
+        <v>9.6382360707684186E-3</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.110702764506513E-2</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="28"/>
+        <v>7.7605747435552644E-3</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.2387065124075058E-2</v>
+      </c>
+      <c r="Q26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.2507540719887392E-2</v>
+      </c>
+      <c r="R26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.0121312181465796E-2</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.0364752618273744E-2</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.4136087306819015E-2</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.3529864701352985E-2</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="28"/>
+        <v>1.0656178566626326E-2</v>
       </c>
       <c r="W26" s="7" t="e">
-        <f>W9/W3</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4">
         <f>C10/C3</f>
@@ -24409,59 +24552,59 @@
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
-      <c r="L27" s="4" t="e">
-        <f>L10/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="4" t="e">
-        <f>M10/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="4" t="e">
-        <f>N10/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="4" t="e">
-        <f>O10/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="4" t="e">
-        <f>P10/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="4" t="e">
-        <f>Q10/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="4" t="e">
-        <f>R10/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="4" t="e">
-        <f>S10/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
-        <f>T10/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="4" t="e">
-        <f>U10/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="4" t="e">
-        <f>V10/V3</f>
-        <v>#DIV/0!</v>
+      <c r="L27" s="4">
+        <f t="shared" ref="L27:W27" si="29">L10/L3</f>
+        <v>4.9002601908065914E-2</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="29"/>
+        <v>4.0357362908194708E-2</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.4015272163011964E-2</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.2732721195589523E-2</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.6098278892931608E-2</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.6356324150412227E-2</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.8403560404852488E-2</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.6258577103647542E-2</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="29"/>
+        <v>5.6141507361019562E-2</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="29"/>
+        <v>4.2092912404209287E-2</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="29"/>
+        <v>3.6372193088610998E-2</v>
       </c>
       <c r="W27" s="7" t="e">
-        <f>W10/W3</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4">
         <f>C12/C3</f>
@@ -24485,59 +24628,59 @@
       </c>
       <c r="H28" s="123"/>
       <c r="I28" s="123"/>
-      <c r="L28" s="4" t="e">
-        <f>L12/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="4" t="e">
-        <f>M12/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="4" t="e">
-        <f>N12/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f>O12/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="4" t="e">
-        <f>P12/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4" t="e">
-        <f>Q12/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="4" t="e">
-        <f>R12/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f>S12/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f>T12/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="4" t="e">
-        <f>U12/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f>V12/V3</f>
-        <v>#DIV/0!</v>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:W28" si="30">L12/L3</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="30"/>
+        <v>-1.5517170974723344E-3</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="30"/>
+        <v>6.9153636328710263E-4</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="30"/>
+        <v>-2.003188749437881E-3</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="30"/>
+        <v>-3.5391112004826064E-3</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="30"/>
+        <v>4.6658531332998353E-4</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="30"/>
+        <v>6.5005417118093212E-4</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="30"/>
+        <v>1.1352816230865012E-3</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="30"/>
+        <v>2.749972500274997E-3</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="30"/>
+        <v>1.344628210299852E-4</v>
       </c>
       <c r="W28" s="7" t="e">
-        <f>W12/W3</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -24568,46 +24711,46 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="e">
-        <f>P19/L19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f>Q19/M19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f>R19/N19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f>S19/O19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f>T19/P19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f>U19/Q19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="4" t="e">
-        <f>V19/R19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" s="7" t="e">
-        <f>W19/S19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="4" t="e">
-        <f>X19/T19-1</f>
-        <v>#DIV/0!</v>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:X29" si="31">P19/L19-1</f>
+        <v>-0.164140320485057</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="31"/>
+        <v>-3.1055900621117516E-2</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="31"/>
+        <v>0.16032388663967589</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="31"/>
+        <v>0.11856585019523558</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="31"/>
+        <v>7.77202072538552E-3</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="31"/>
+        <v>0.13301282051282159</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="31"/>
+        <v>9.1765526866715019E-2</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="31"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" s="53">
         <f>C14/C3</f>
@@ -24629,13 +24772,13 @@
         <f>G14/G3</f>
         <v>7.7518640706344521E-3</v>
       </c>
-      <c r="H30" s="53" t="e">
+      <c r="H30" s="53">
         <f>H14/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="53" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53">
         <f>I14/I4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -24653,7 +24796,7 @@
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" s="55">
         <f>-C14/C13</f>
@@ -24683,1046 +24826,1598 @@
         <f>-I14/I13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="7"/>
+      <c r="L31" s="55">
+        <f>L14/L13</f>
+        <v>5.5595153243050623E-2</v>
+      </c>
+      <c r="M31" s="55">
+        <f t="shared" ref="M31:W31" si="32">M14/M13</f>
+        <v>6.8837592745259774E-2</v>
+      </c>
+      <c r="N31" s="55">
+        <f t="shared" si="32"/>
+        <v>5.8178191489361757E-2</v>
+      </c>
+      <c r="O31" s="55">
+        <f t="shared" si="32"/>
+        <v>5.5884092253104548E-2</v>
+      </c>
+      <c r="P31" s="55">
+        <f t="shared" si="32"/>
+        <v>8.1081081081080988E-2</v>
+      </c>
+      <c r="Q31" s="55">
+        <f t="shared" si="32"/>
+        <v>8.4905660377358555E-2</v>
+      </c>
+      <c r="R31" s="55">
+        <f t="shared" si="32"/>
+        <v>5.6016004572735131E-2</v>
+      </c>
+      <c r="S31" s="55">
+        <f t="shared" si="32"/>
+        <v>5.9012016021362003E-2</v>
+      </c>
+      <c r="T31" s="55">
+        <f t="shared" si="32"/>
+        <v>0.11743772241992899</v>
+      </c>
+      <c r="U31" s="55">
+        <f t="shared" si="32"/>
+        <v>0.13321364452423698</v>
+      </c>
+      <c r="V31" s="55">
+        <f t="shared" si="32"/>
+        <v>9.4217862674238498E-2</v>
+      </c>
+      <c r="W31" s="54" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="X31" s="4"/>
     </row>
-    <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="154">
-        <f t="shared" ref="C34:F34" si="15">C35-C54</f>
+    <row r="32" spans="2:25" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="148">
+        <f t="shared" ref="C32:F32" si="33">C17/C16</f>
+        <v>8.1426562699731669E-2</v>
+      </c>
+      <c r="D32" s="148">
+        <f t="shared" si="33"/>
+        <v>0.69440993788820116</v>
+      </c>
+      <c r="E32" s="148">
+        <f t="shared" si="33"/>
+        <v>-9.6964440589765707E-2</v>
+      </c>
+      <c r="F32" s="148">
+        <f t="shared" si="33"/>
+        <v>0.12693187014174662</v>
+      </c>
+      <c r="G32" s="149">
+        <f>G17/G16</f>
+        <v>0.12226684515841149</v>
+      </c>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="L32" s="148">
+        <f t="shared" ref="L32:V32" si="34">L17/L16</f>
+        <v>0.12566037735849062</v>
+      </c>
+      <c r="M32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.14386896857016399</v>
+      </c>
+      <c r="N32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.12495587716201918</v>
+      </c>
+      <c r="O32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.11775759473849019</v>
+      </c>
+      <c r="P32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.13725490196078416</v>
+      </c>
+      <c r="Q32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.12136832239925034</v>
+      </c>
+      <c r="R32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.13169845594913729</v>
+      </c>
+      <c r="S32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.10442678774120356</v>
+      </c>
+      <c r="T32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.12724014336917583</v>
+      </c>
+      <c r="U32" s="148">
+        <f t="shared" si="34"/>
+        <v>0.12054681027340514</v>
+      </c>
+      <c r="V32" s="148">
+        <f>V17/V16</f>
+        <v>0.1068680535765175</v>
+      </c>
+      <c r="W32" s="149" t="e">
+        <f>W17/W16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="151"/>
+    </row>
+    <row r="35" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11">
+        <f>C36-C49-C56</f>
         <v>0</v>
       </c>
-      <c r="D34" s="154">
-        <f t="shared" si="15"/>
+      <c r="D35" s="11">
+        <f>D36-D49-D56</f>
         <v>-435.5</v>
       </c>
-      <c r="E34" s="154">
-        <f t="shared" si="15"/>
+      <c r="E35" s="11">
+        <f>E36-E49-E56</f>
         <v>284.90000000000009</v>
       </c>
-      <c r="F34" s="154">
-        <f t="shared" si="15"/>
+      <c r="F35" s="11">
+        <f>F36-F49-F56</f>
         <v>-480.4</v>
       </c>
-      <c r="G34" s="14">
-        <f>G35-G54</f>
+      <c r="G35" s="14">
+        <f>G36-G49-G56</f>
         <v>-517.09999999999991</v>
       </c>
-      <c r="L34" s="11">
-        <f>L35+L37-L47-L48-L56</f>
+      <c r="L35" s="11">
+        <f>L36-L49-L56</f>
         <v>0</v>
       </c>
-      <c r="M34" s="11">
-        <f>M35+M37-M47-M48-M56</f>
+      <c r="M35" s="11">
+        <f t="shared" ref="M35:V35" si="35">M36-M49-M56</f>
         <v>0</v>
       </c>
-      <c r="N34" s="11">
-        <f>N35+N37-N47-N48-N56</f>
+      <c r="N35" s="11">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O34" s="11">
-        <f>O35+O37-O47-O48-O56</f>
+      <c r="O35" s="11">
+        <f t="shared" si="35"/>
+        <v>-480.4</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="35"/>
+        <v>-517.6</v>
+      </c>
+      <c r="Q35" s="11">
+        <f t="shared" si="35"/>
+        <v>-703.09999999999991</v>
+      </c>
+      <c r="R35" s="11">
+        <f t="shared" si="35"/>
+        <v>-605.59999999999991</v>
+      </c>
+      <c r="S35" s="11">
+        <f t="shared" si="35"/>
+        <v>-517.09999999999991</v>
+      </c>
+      <c r="T35" s="11">
+        <f t="shared" si="35"/>
+        <v>-1380.3999999999999</v>
+      </c>
+      <c r="U35" s="11">
+        <f t="shared" si="35"/>
+        <v>-1522.7</v>
+      </c>
+      <c r="V35" s="11">
+        <f t="shared" si="35"/>
+        <v>-1287.5999999999999</v>
+      </c>
+      <c r="W35" s="14">
+        <f>W36-W49-W56</f>
         <v>0</v>
       </c>
-      <c r="P34" s="11">
-        <f>P35+P37-P47-P48-P56</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="11">
-        <f>Q35+Q37-Q47-Q48-Q56</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="11">
-        <f>R35+R37-R47-R48-R56</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="11">
-        <f>S35+S37-S47-S48-S56</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="11">
-        <f>T35+T37-T47-T48-T56</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="11">
-        <f>U35+U37-U47-U48-U56</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="11">
-        <f>V35+V37-V47-V48-V56</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14">
-        <f>W35+W37-W47-W48-W56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10">
-        <v>763.3</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1214.7</v>
-      </c>
-      <c r="F35" s="10">
-        <v>420.6</v>
-      </c>
-      <c r="G35" s="15">
-        <v>367.8</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="15"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
-        <v>49.8</v>
+        <v>763.3</v>
       </c>
       <c r="E36" s="10">
-        <v>68.2</v>
+        <v>1214.7</v>
       </c>
       <c r="F36" s="10">
-        <v>72</v>
+        <v>420.6</v>
       </c>
       <c r="G36" s="15">
-        <v>80.2</v>
+        <v>367.8</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
+      <c r="O36" s="10">
+        <f>F36</f>
+        <v>420.6</v>
+      </c>
+      <c r="P36" s="10">
+        <v>377.5</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>240.7</v>
+      </c>
+      <c r="R36" s="10">
+        <v>275.3</v>
+      </c>
+      <c r="S36" s="10">
+        <f>G36</f>
+        <v>367.8</v>
+      </c>
+      <c r="T36" s="10">
+        <v>192.1</v>
+      </c>
+      <c r="U36" s="10">
+        <v>195.7</v>
+      </c>
+      <c r="V36" s="10">
+        <v>243.9</v>
+      </c>
       <c r="W36" s="15"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>206.9</v>
+        <v>49.8</v>
       </c>
       <c r="E37" s="10">
-        <v>190.8</v>
+        <v>68.2</v>
       </c>
       <c r="F37" s="10">
-        <v>270.60000000000002</v>
+        <v>72</v>
       </c>
       <c r="G37" s="15">
-        <v>287.89999999999998</v>
+        <v>80.2</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37:O59" si="36">F37</f>
+        <v>72</v>
+      </c>
+      <c r="P37" s="10">
+        <v>50.7</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R37" s="10">
+        <v>57.6</v>
+      </c>
+      <c r="S37" s="10">
+        <f t="shared" ref="S37:S59" si="37">G37</f>
+        <v>80.2</v>
+      </c>
+      <c r="T37" s="10">
+        <v>59.2</v>
+      </c>
+      <c r="U37" s="10">
+        <v>80.3</v>
+      </c>
+      <c r="V37" s="10">
+        <v>72.2</v>
+      </c>
       <c r="W37" s="15"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <v>18.399999999999999</v>
+        <v>206.9</v>
       </c>
       <c r="E38" s="10">
-        <v>337.2</v>
+        <v>190.8</v>
       </c>
       <c r="F38" s="10">
-        <v>274.8</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="G38" s="15">
-        <v>107.3</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
+      <c r="O38" s="10">
+        <f t="shared" si="36"/>
+        <v>270.60000000000002</v>
+      </c>
+      <c r="P38" s="10">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="R38" s="10">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" si="37"/>
+        <v>287.89999999999998</v>
+      </c>
+      <c r="T38" s="10">
+        <v>287</v>
+      </c>
+      <c r="U38" s="10">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="V38" s="10">
+        <v>298.2</v>
+      </c>
       <c r="W38" s="15"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>63</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>60.2</v>
+        <v>337.2</v>
       </c>
       <c r="F39" s="10">
-        <v>141.4</v>
+        <v>274.8</v>
       </c>
       <c r="G39" s="15">
-        <v>154.5</v>
+        <v>107.3</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
+      <c r="O39" s="10">
+        <f t="shared" si="36"/>
+        <v>274.8</v>
+      </c>
+      <c r="P39" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>115.6</v>
+      </c>
+      <c r="R39" s="10">
+        <v>86.2</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="37"/>
+        <v>107.3</v>
+      </c>
+      <c r="T39" s="10">
+        <v>98.8</v>
+      </c>
+      <c r="U39" s="10">
+        <v>138.9</v>
+      </c>
+      <c r="V39" s="10">
+        <v>122.6</v>
+      </c>
       <c r="W39" s="15"/>
     </row>
-    <row r="40" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
         <v>63</v>
       </c>
-      <c r="C40" s="11">
-        <f>SUM(C35:C39)</f>
+      <c r="E40" s="10">
+        <v>60.2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>141.4</v>
+      </c>
+      <c r="G40" s="15">
+        <v>154.5</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10">
+        <f t="shared" si="36"/>
+        <v>141.4</v>
+      </c>
+      <c r="P40" s="10">
+        <v>170.9</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>168.1</v>
+      </c>
+      <c r="R40" s="10">
+        <v>165.9</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="37"/>
+        <v>154.5</v>
+      </c>
+      <c r="T40" s="10">
+        <v>198.6</v>
+      </c>
+      <c r="U40" s="10">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="V40" s="10">
+        <v>139.5</v>
+      </c>
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="11">
+        <f>SUM(C36:C40)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="11">
-        <f>SUM(D35:D39)</f>
+      <c r="D41" s="11">
+        <f>SUM(D36:D40)</f>
         <v>1101.3999999999999</v>
       </c>
-      <c r="E40" s="11">
-        <f>SUM(E35:E39)</f>
+      <c r="E41" s="11">
+        <f>SUM(E36:E40)</f>
         <v>1871.1000000000001</v>
       </c>
-      <c r="F40" s="11">
-        <f>SUM(F35:F39)</f>
+      <c r="F41" s="11">
+        <f>SUM(F36:F40)</f>
         <v>1179.4000000000001</v>
       </c>
-      <c r="G40" s="14">
-        <f>SUM(G35:G39)</f>
+      <c r="G41" s="14">
+        <f>SUM(G36:G40)</f>
         <v>997.69999999999993</v>
       </c>
-      <c r="L40" s="11">
-        <f>SUM(L35:L39)</f>
+      <c r="L41" s="11">
+        <f t="shared" ref="L41:W41" si="38">SUM(L36:L40)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="11">
-        <f>SUM(M35:M39)</f>
+      <c r="M41" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N40" s="11">
-        <f>SUM(N35:N39)</f>
+      <c r="N41" s="11">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O40" s="11">
-        <f>SUM(O35:O39)</f>
+      <c r="O41" s="11">
+        <f t="shared" si="38"/>
+        <v>1179.4000000000001</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="38"/>
+        <v>940.99999999999989</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="38"/>
+        <v>892.1</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="38"/>
+        <v>890.9</v>
+      </c>
+      <c r="S41" s="11">
+        <f t="shared" si="38"/>
+        <v>997.69999999999993</v>
+      </c>
+      <c r="T41" s="11">
+        <f t="shared" si="38"/>
+        <v>835.69999999999993</v>
+      </c>
+      <c r="U41" s="11">
+        <f t="shared" si="38"/>
+        <v>867.7</v>
+      </c>
+      <c r="V41" s="11">
+        <f t="shared" si="38"/>
+        <v>876.4</v>
+      </c>
+      <c r="W41" s="14">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="P40" s="11">
-        <f>SUM(P35:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f>SUM(Q35:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="11">
-        <f>SUM(R35:R39)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f>SUM(S35:S39)</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="11">
-        <f>SUM(T35:T39)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="11">
-        <f>SUM(U35:U39)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="11">
-        <f>SUM(V35:V39)</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14">
-        <f>SUM(W35:W39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10">
-        <v>2756.9</v>
-      </c>
-      <c r="E41" s="10">
-        <v>2869.2</v>
-      </c>
-      <c r="F41" s="10">
-        <v>3356</v>
-      </c>
-      <c r="G41" s="15">
-        <v>3725.1</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="15"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>3969.2</v>
+        <v>2756.9</v>
       </c>
       <c r="E42" s="10">
-        <v>3776.4</v>
+        <v>2869.2</v>
       </c>
       <c r="F42" s="10">
-        <v>3465.1</v>
+        <v>3356</v>
       </c>
       <c r="G42" s="15">
-        <v>3373.9</v>
+        <v>3725.1</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
+      <c r="O42" s="10">
+        <f t="shared" si="36"/>
+        <v>3356</v>
+      </c>
+      <c r="P42" s="10">
+        <v>3485.8</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>3558.7</v>
+      </c>
+      <c r="R42" s="10">
+        <v>3611.1</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="37"/>
+        <v>3725.1</v>
+      </c>
+      <c r="T42" s="10">
+        <v>3991.7</v>
+      </c>
+      <c r="U42" s="10">
+        <v>4043.5</v>
+      </c>
+      <c r="V42" s="10">
+        <v>4101.8999999999996</v>
+      </c>
       <c r="W42" s="15"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
-        <v>1037.4000000000001</v>
+        <v>3969.2</v>
       </c>
       <c r="E43" s="10">
-        <v>1037.4000000000001</v>
+        <v>3776.4</v>
       </c>
       <c r="F43" s="10">
-        <v>1037.4000000000001</v>
+        <v>3465.1</v>
       </c>
       <c r="G43" s="15">
-        <v>1037.4000000000001</v>
+        <v>3373.9</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
+      <c r="O43" s="10">
+        <f t="shared" si="36"/>
+        <v>3465.1</v>
+      </c>
+      <c r="P43" s="10">
+        <v>3452.8</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>3434.8</v>
+      </c>
+      <c r="R43" s="10">
+        <v>3435.5</v>
+      </c>
+      <c r="S43" s="10">
+        <f t="shared" si="37"/>
+        <v>3373.9</v>
+      </c>
+      <c r="T43" s="10">
+        <v>3600.3</v>
+      </c>
+      <c r="U43" s="10">
+        <v>3539.7</v>
+      </c>
+      <c r="V43" s="10">
+        <v>3494.3</v>
+      </c>
       <c r="W43" s="15"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
-        <v>805.9</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="E44" s="10">
-        <v>806.3</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="F44" s="10">
-        <v>806.3</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="G44" s="15">
-        <v>806.3</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
+      <c r="O44" s="10">
+        <f t="shared" si="36"/>
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="P44" s="10">
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="R44" s="10">
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" si="37"/>
+        <v>1037.4000000000001</v>
+      </c>
+      <c r="T44" s="10">
+        <v>1376.9</v>
+      </c>
+      <c r="U44" s="10">
+        <v>1392.9</v>
+      </c>
+      <c r="V44" s="10">
+        <v>1397.8</v>
+      </c>
       <c r="W44" s="15"/>
     </row>
-    <row r="45" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
-        <v>275.3</v>
+        <v>805.9</v>
       </c>
       <c r="E45" s="10">
-        <v>295.7</v>
+        <v>806.3</v>
       </c>
       <c r="F45" s="10">
-        <v>291.60000000000002</v>
+        <v>806.3</v>
       </c>
       <c r="G45" s="15">
-        <v>301.10000000000002</v>
+        <v>806.3</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
+      <c r="O45" s="10">
+        <f t="shared" si="36"/>
+        <v>806.3</v>
+      </c>
+      <c r="P45" s="10">
+        <v>806.3</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>806.3</v>
+      </c>
+      <c r="R45" s="10">
+        <v>806.3</v>
+      </c>
+      <c r="S45" s="10">
+        <f t="shared" si="37"/>
+        <v>806.3</v>
+      </c>
+      <c r="T45" s="10">
+        <v>1148</v>
+      </c>
+      <c r="U45" s="10">
+        <v>1148</v>
+      </c>
+      <c r="V45" s="10">
+        <v>1148</v>
+      </c>
       <c r="W45" s="15"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="11">
-        <f>SUM(C40:C45)</f>
+    <row r="46" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10">
+        <v>275.3</v>
+      </c>
+      <c r="E46" s="10">
+        <v>295.7</v>
+      </c>
+      <c r="F46" s="10">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="G46" s="15">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10">
+        <f t="shared" si="36"/>
+        <v>291.60000000000002</v>
+      </c>
+      <c r="P46" s="10">
+        <v>291.2</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>296</v>
+      </c>
+      <c r="R46" s="10">
+        <v>294.2</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" si="37"/>
+        <v>301.10000000000002</v>
+      </c>
+      <c r="T46" s="10">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="U46" s="10">
+        <v>330.3</v>
+      </c>
+      <c r="V46" s="10">
+        <v>339.8</v>
+      </c>
+      <c r="W46" s="15"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="11">
+        <f>SUM(C41:C46)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="11">
-        <f>SUM(D40:D45)</f>
+      <c r="D47" s="11">
+        <f>SUM(D41:D46)</f>
         <v>9946.0999999999985</v>
       </c>
-      <c r="E46" s="11">
-        <f>SUM(E40:E45)</f>
+      <c r="E47" s="11">
+        <f>SUM(E41:E46)</f>
         <v>10656.1</v>
       </c>
-      <c r="F46" s="11">
-        <f>SUM(F40:F45)</f>
+      <c r="F47" s="11">
+        <f>SUM(F41:F46)</f>
         <v>10135.799999999999</v>
       </c>
-      <c r="G46" s="14">
-        <f>SUM(G40:G45)</f>
+      <c r="G47" s="14">
+        <f>SUM(G41:G46)</f>
         <v>10241.5</v>
       </c>
-      <c r="L46" s="11">
-        <f>SUM(L40:L45)</f>
+      <c r="L47" s="11">
+        <f t="shared" ref="L47:W47" si="39">SUM(L41:L46)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="11">
-        <f>SUM(M40:M45)</f>
+      <c r="M47" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N46" s="11">
-        <f>SUM(N40:N45)</f>
+      <c r="N47" s="11">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O46" s="11">
-        <f>SUM(O40:O45)</f>
+      <c r="O47" s="11">
+        <f t="shared" si="39"/>
+        <v>10135.799999999999</v>
+      </c>
+      <c r="P47" s="11">
+        <f t="shared" si="39"/>
+        <v>10014.5</v>
+      </c>
+      <c r="Q47" s="11">
+        <f t="shared" si="39"/>
+        <v>10025.299999999999</v>
+      </c>
+      <c r="R47" s="11">
+        <f t="shared" si="39"/>
+        <v>10075.4</v>
+      </c>
+      <c r="S47" s="11">
+        <f t="shared" si="39"/>
+        <v>10241.5</v>
+      </c>
+      <c r="T47" s="11">
+        <f t="shared" si="39"/>
+        <v>11269.2</v>
+      </c>
+      <c r="U47" s="11">
+        <f t="shared" si="39"/>
+        <v>11322.099999999999</v>
+      </c>
+      <c r="V47" s="11">
+        <f t="shared" si="39"/>
+        <v>11358.199999999997</v>
+      </c>
+      <c r="W47" s="14">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="P46" s="11">
-        <f>SUM(P40:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="11">
-        <f>SUM(Q40:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="11">
-        <f>SUM(R40:R45)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="11">
-        <f>SUM(S40:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="T46" s="11">
-        <f>SUM(T40:T45)</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="11">
-        <f>SUM(U40:U45)</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="11">
-        <f>SUM(V40:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="14">
-        <f>SUM(W40:W45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10">
-        <v>249.4</v>
-      </c>
-      <c r="E47" s="10">
-        <v>304.5</v>
-      </c>
-      <c r="F47" s="10">
-        <v>366.9</v>
-      </c>
-      <c r="G47" s="15">
-        <v>426.2</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="15"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
-        <v>150</v>
+        <v>249.4</v>
       </c>
       <c r="E48" s="10">
-        <v>177.4</v>
+        <v>304.5</v>
       </c>
       <c r="F48" s="10">
-        <v>181.5</v>
+        <v>366.9</v>
       </c>
       <c r="G48" s="15">
-        <v>173</v>
+        <v>426.2</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
+      <c r="O48" s="10">
+        <f t="shared" si="36"/>
+        <v>366.9</v>
+      </c>
+      <c r="P48" s="10">
+        <v>406.9</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>435.3</v>
+      </c>
+      <c r="R48" s="10">
+        <v>423.8</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="37"/>
+        <v>426.2</v>
+      </c>
+      <c r="T48" s="10">
+        <v>419.6</v>
+      </c>
+      <c r="U48" s="10">
+        <v>423.9</v>
+      </c>
+      <c r="V48" s="10">
+        <v>406</v>
+      </c>
       <c r="W48" s="15"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="E49" s="10">
-        <v>35.9</v>
-      </c>
-      <c r="F49" s="10">
-        <v>32.1</v>
-      </c>
-      <c r="G49" s="15">
-        <v>7.8</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="15"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
+      <c r="Q49" s="10">
+        <v>58</v>
+      </c>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
+      <c r="T49" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="U49" s="10">
+        <v>350</v>
+      </c>
+      <c r="V49" s="10">
+        <v>158.69999999999999</v>
+      </c>
       <c r="W49" s="15"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
-        <v>43.4</v>
+        <v>150</v>
       </c>
       <c r="E50" s="10">
-        <v>60.5</v>
+        <v>177.4</v>
       </c>
       <c r="F50" s="10">
-        <v>64.5</v>
+        <v>181.5</v>
       </c>
       <c r="G50" s="15">
-        <v>65.900000000000006</v>
+        <v>173</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
+      <c r="O50" s="10">
+        <f t="shared" si="36"/>
+        <v>181.5</v>
+      </c>
+      <c r="P50" s="10">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>137.1</v>
+      </c>
+      <c r="R50" s="10">
+        <v>167.9</v>
+      </c>
+      <c r="S50" s="10">
+        <f t="shared" si="37"/>
+        <v>173</v>
+      </c>
+      <c r="T50" s="10">
+        <v>168.6</v>
+      </c>
+      <c r="U50" s="10">
+        <v>177.1</v>
+      </c>
+      <c r="V50" s="10">
+        <v>195.6</v>
+      </c>
       <c r="W50" s="15"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
-        <v>467.9</v>
+        <v>6.2</v>
       </c>
       <c r="E51" s="10">
-        <v>474.2</v>
+        <v>35.9</v>
       </c>
       <c r="F51" s="10">
-        <v>498</v>
+        <v>32.1</v>
       </c>
       <c r="G51" s="15">
-        <v>512</v>
+        <v>7.8</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
+      <c r="O51" s="10">
+        <f t="shared" si="36"/>
+        <v>32.1</v>
+      </c>
+      <c r="P51" s="10">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R51" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="S51" s="10">
+        <f t="shared" si="37"/>
+        <v>7.8</v>
+      </c>
+      <c r="T51" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="U51" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="V51" s="10">
+        <v>8.5</v>
+      </c>
       <c r="W51" s="15"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
-        <v>605.9</v>
+        <v>43.4</v>
       </c>
       <c r="E52" s="10">
-        <v>795.8</v>
+        <v>60.5</v>
       </c>
       <c r="F52" s="10">
-        <v>704.5</v>
+        <v>64.5</v>
       </c>
       <c r="G52" s="15">
-        <v>752.5</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
+      <c r="O52" s="10">
+        <f t="shared" si="36"/>
+        <v>64.5</v>
+      </c>
+      <c r="P52" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>68.3</v>
+      </c>
+      <c r="R52" s="10">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" si="37"/>
+        <v>65.900000000000006</v>
+      </c>
+      <c r="T52" s="10">
+        <v>74.3</v>
+      </c>
+      <c r="U52" s="10">
+        <v>69.7</v>
+      </c>
+      <c r="V52" s="10">
+        <v>69</v>
+      </c>
       <c r="W52" s="15"/>
     </row>
-    <row r="53" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="11">
-        <f>SUM(C47:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="11">
-        <f>SUM(D47:D52)</f>
-        <v>1522.7999999999997</v>
-      </c>
-      <c r="E53" s="11">
-        <f>SUM(E47:E52)</f>
-        <v>1848.3</v>
-      </c>
-      <c r="F53" s="11">
-        <f>SUM(F47:F52)</f>
-        <v>1847.5</v>
-      </c>
-      <c r="G53" s="14">
-        <f>SUM(G47:G52)</f>
-        <v>1937.4</v>
-      </c>
-      <c r="L53" s="11">
-        <f t="shared" ref="L53:W53" si="16">SUM(L47:L52)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="14">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10">
+        <v>467.9</v>
+      </c>
+      <c r="E53" s="10">
+        <v>474.2</v>
+      </c>
+      <c r="F53" s="10">
+        <v>498</v>
+      </c>
+      <c r="G53" s="15">
+        <v>512</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10">
+        <f t="shared" si="36"/>
+        <v>498</v>
+      </c>
+      <c r="P53" s="10">
+        <v>467.9</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>463.8</v>
+      </c>
+      <c r="R53" s="10">
+        <v>548</v>
+      </c>
+      <c r="S53" s="10">
+        <f t="shared" si="37"/>
+        <v>512</v>
+      </c>
+      <c r="T53" s="10">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="U53" s="10">
+        <v>547.29999999999995</v>
+      </c>
+      <c r="V53" s="10">
+        <v>626</v>
+      </c>
+      <c r="W53" s="15"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
-        <f>270+928.8</f>
-        <v>1198.8</v>
+        <v>605.9</v>
       </c>
       <c r="E54" s="10">
-        <v>929.8</v>
+        <v>795.8</v>
       </c>
       <c r="F54" s="10">
-        <v>901</v>
+        <v>704.5</v>
       </c>
       <c r="G54" s="15">
-        <v>884.9</v>
+        <v>752.5</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
+      <c r="O54" s="10">
+        <f t="shared" si="36"/>
+        <v>704.5</v>
+      </c>
+      <c r="P54" s="10">
+        <v>699.5</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>725</v>
+      </c>
+      <c r="R54" s="10">
+        <v>722.6</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" si="37"/>
+        <v>752.5</v>
+      </c>
+      <c r="T54" s="10">
+        <v>786.1</v>
+      </c>
+      <c r="U54" s="10">
+        <v>805.2</v>
+      </c>
+      <c r="V54" s="10">
+        <v>808.6</v>
+      </c>
       <c r="W54" s="15"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10">
-        <v>56.1</v>
-      </c>
-      <c r="E55" s="10">
-        <v>221.6</v>
-      </c>
-      <c r="F55" s="10">
-        <v>201.1</v>
-      </c>
-      <c r="G55" s="15">
-        <v>142.19999999999999</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="15"/>
+    <row r="55" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="11">
+        <f>SUM(C48:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <f>SUM(D48:D54)</f>
+        <v>1792.8000000000002</v>
+      </c>
+      <c r="E55" s="11">
+        <f>SUM(E48:E54)</f>
+        <v>1848.3</v>
+      </c>
+      <c r="F55" s="11">
+        <f>SUM(F48:F54)</f>
+        <v>1847.5</v>
+      </c>
+      <c r="G55" s="14">
+        <f>SUM(G48:G54)</f>
+        <v>1937.4</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" ref="L55:W55" si="40">SUM(L48:L54)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
+        <f t="shared" si="40"/>
+        <v>1847.5</v>
+      </c>
+      <c r="P55" s="11">
+        <f t="shared" si="40"/>
+        <v>1825.2999999999997</v>
+      </c>
+      <c r="Q55" s="11">
+        <f t="shared" si="40"/>
+        <v>1906.3999999999999</v>
+      </c>
+      <c r="R55" s="11">
+        <f t="shared" si="40"/>
+        <v>1950.4</v>
+      </c>
+      <c r="S55" s="11">
+        <f t="shared" si="40"/>
+        <v>1937.4</v>
+      </c>
+      <c r="T55" s="11">
+        <f t="shared" si="40"/>
+        <v>2094.1999999999998</v>
+      </c>
+      <c r="U55" s="11">
+        <f t="shared" si="40"/>
+        <v>2381.6</v>
+      </c>
+      <c r="V55" s="11">
+        <f t="shared" si="40"/>
+        <v>2272.4</v>
+      </c>
+      <c r="W55" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
-        <v>4276.3</v>
+        <f>928.8</f>
+        <v>928.8</v>
       </c>
       <c r="E56" s="10">
-        <v>4088.5</v>
+        <v>929.8</v>
       </c>
       <c r="F56" s="10">
-        <v>3755.8</v>
+        <v>901</v>
       </c>
       <c r="G56" s="15">
-        <v>3667.6</v>
+        <v>884.9</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
+      <c r="O56" s="10">
+        <f t="shared" si="36"/>
+        <v>901</v>
+      </c>
+      <c r="P56" s="10">
+        <v>895.1</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>885.8</v>
+      </c>
+      <c r="R56" s="10">
+        <v>880.9</v>
+      </c>
+      <c r="S56" s="10">
+        <f t="shared" si="37"/>
+        <v>884.9</v>
+      </c>
+      <c r="T56" s="10">
+        <v>1477.1</v>
+      </c>
+      <c r="U56" s="10">
+        <v>1368.4</v>
+      </c>
+      <c r="V56" s="10">
+        <v>1372.8</v>
+      </c>
       <c r="W56" s="15"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
-        <v>560.9</v>
+        <v>56.1</v>
       </c>
       <c r="E57" s="10">
-        <v>754.8</v>
+        <v>221.6</v>
       </c>
       <c r="F57" s="10">
-        <v>1232.2</v>
+        <v>201.1</v>
       </c>
       <c r="G57" s="15">
-        <v>1407.9</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
+      <c r="O57" s="10">
+        <f t="shared" si="36"/>
+        <v>201.1</v>
+      </c>
+      <c r="P57" s="10">
+        <v>192.4</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>177.5</v>
+      </c>
+      <c r="R57" s="10">
+        <v>146.1</v>
+      </c>
+      <c r="S57" s="10">
+        <f t="shared" si="37"/>
+        <v>142.19999999999999</v>
+      </c>
+      <c r="T57" s="10">
+        <v>231.4</v>
+      </c>
+      <c r="U57" s="10">
+        <v>242.3</v>
+      </c>
+      <c r="V57" s="10">
+        <v>240.9</v>
+      </c>
       <c r="W57" s="15"/>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="11">
-        <f>SUM(C53:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="11">
-        <f>SUM(D53:D57)</f>
-        <v>7614.9</v>
-      </c>
-      <c r="E58" s="11">
-        <f>SUM(E53:E57)</f>
-        <v>7843</v>
-      </c>
-      <c r="F58" s="11">
-        <f>SUM(F53:F57)</f>
-        <v>7937.5999999999995</v>
-      </c>
-      <c r="G58" s="14">
-        <f>SUM(G53:G57)</f>
-        <v>8040</v>
-      </c>
-      <c r="L58" s="11">
-        <f t="shared" ref="L58:W58" si="17">SUM(L53:L57)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10">
+        <v>4276.3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>4088.5</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3755.8</v>
+      </c>
+      <c r="G58" s="15">
+        <v>3667.6</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10">
+        <f t="shared" si="36"/>
+        <v>3755.8</v>
+      </c>
+      <c r="P58" s="10">
+        <v>3745.5</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>3730.5</v>
+      </c>
+      <c r="R58" s="10">
+        <v>3738.5</v>
+      </c>
+      <c r="S58" s="10">
+        <f t="shared" si="37"/>
+        <v>3667.6</v>
+      </c>
+      <c r="T58" s="10">
+        <v>3877.5</v>
+      </c>
+      <c r="U58" s="10">
+        <v>3815.3</v>
+      </c>
+      <c r="V58" s="10">
+        <v>3774.4</v>
+      </c>
+      <c r="W58" s="15"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>560.9</v>
+      </c>
+      <c r="E59" s="10">
+        <v>754.8</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1232.2</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1407.9</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10">
+        <f t="shared" si="36"/>
+        <v>1232.2</v>
+      </c>
+      <c r="P59" s="10">
+        <v>1292.0999999999999</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>1304.2</v>
+      </c>
+      <c r="R59" s="10">
+        <v>1315.6</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" si="37"/>
+        <v>1407.9</v>
+      </c>
+      <c r="T59" s="10">
+        <v>1441</v>
+      </c>
+      <c r="U59" s="10">
+        <v>1474.8</v>
+      </c>
+      <c r="V59" s="10">
+        <v>1516.8</v>
+      </c>
+      <c r="W59" s="15"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="11">
+        <f>SUM(C55:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="11">
+        <f>SUM(D55:D59)</f>
+        <v>7614.9</v>
+      </c>
+      <c r="E60" s="11">
+        <f>SUM(E55:E59)</f>
+        <v>7843</v>
+      </c>
+      <c r="F60" s="11">
+        <f>SUM(F55:F59)</f>
+        <v>7937.5999999999995</v>
+      </c>
+      <c r="G60" s="14">
+        <f>SUM(G55:G59)</f>
+        <v>8040</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" ref="L60:W60" si="41">SUM(L55:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="11">
+        <f t="shared" si="41"/>
+        <v>7937.5999999999995</v>
+      </c>
+      <c r="P60" s="11">
+        <f t="shared" si="41"/>
+        <v>7950.4</v>
+      </c>
+      <c r="Q60" s="11">
+        <f t="shared" si="41"/>
+        <v>8004.4</v>
+      </c>
+      <c r="R60" s="11">
+        <f t="shared" si="41"/>
+        <v>8031.5</v>
+      </c>
+      <c r="S60" s="11">
+        <f t="shared" si="41"/>
+        <v>8040</v>
+      </c>
+      <c r="T60" s="11">
+        <f t="shared" si="41"/>
+        <v>9121.2000000000007</v>
+      </c>
+      <c r="U60" s="11">
+        <f t="shared" si="41"/>
+        <v>9282.4</v>
+      </c>
+      <c r="V60" s="11">
+        <f t="shared" si="41"/>
+        <v>9177.2999999999993</v>
+      </c>
+      <c r="W60" s="14">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="10">
+        <f>C47-C60</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <f>D47-D60</f>
+        <v>2331.1999999999989</v>
+      </c>
+      <c r="E61" s="10">
+        <f>E47-E60</f>
+        <v>2813.1000000000004</v>
+      </c>
+      <c r="F61" s="10">
+        <f>F47-F60</f>
+        <v>2198.1999999999998</v>
+      </c>
+      <c r="G61" s="15">
+        <f>G47-G60</f>
+        <v>2201.5</v>
+      </c>
+      <c r="L61" s="10">
+        <f>L47-L60</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="10">
+        <f>M47-M60</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
+        <f>N47-N60</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="10">
+        <f>O47-O60</f>
+        <v>2198.1999999999998</v>
+      </c>
+      <c r="P61" s="10">
+        <f t="shared" ref="P61:W61" si="42">P47-P60</f>
+        <v>2064.1000000000004</v>
+      </c>
+      <c r="Q61" s="10">
+        <f t="shared" si="42"/>
+        <v>2020.8999999999996</v>
+      </c>
+      <c r="R61" s="10">
+        <f t="shared" si="42"/>
+        <v>2043.8999999999996</v>
+      </c>
+      <c r="S61" s="10">
+        <f t="shared" si="42"/>
+        <v>2201.5</v>
+      </c>
+      <c r="T61" s="10">
+        <f t="shared" si="42"/>
+        <v>2148</v>
+      </c>
+      <c r="U61" s="10">
+        <f t="shared" si="42"/>
+        <v>2039.6999999999989</v>
+      </c>
+      <c r="V61" s="10">
+        <f t="shared" si="42"/>
+        <v>2180.8999999999978</v>
+      </c>
+      <c r="W61" s="15">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="153">
-        <f>C46-C58</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="153">
-        <f>D46-D58</f>
-        <v>2331.1999999999989</v>
-      </c>
-      <c r="E59" s="153">
-        <f>E46-E58</f>
-        <v>2813.1000000000004</v>
-      </c>
-      <c r="F59" s="153">
-        <f>F46-F58</f>
-        <v>2198.1999999999998</v>
-      </c>
-      <c r="G59" s="15">
-        <f>G46-G58</f>
-        <v>2201.5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="155" t="e">
-        <f>C14/C54</f>
+      <c r="C63" s="126" t="e">
+        <f>C14/C56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D61" s="155">
-        <f>D14/D54</f>
-        <v>4.7797797797797796E-2</v>
-      </c>
-      <c r="E61" s="155">
-        <f>E14/E54</f>
+      <c r="D63" s="126">
+        <f>D14/D56</f>
+        <v>6.1692506459948324E-2</v>
+      </c>
+      <c r="E63" s="126">
+        <f>E14/E56</f>
         <v>6.8294256829425692E-2</v>
       </c>
-      <c r="F61" s="155">
-        <f>F14/F54</f>
+      <c r="F63" s="126">
+        <f>F14/F56</f>
         <v>7.6248612652608211E-2</v>
       </c>
-      <c r="G61" s="56">
-        <f>G14/G54</f>
+      <c r="G63" s="56">
+        <f>G14/G56</f>
         <v>9.1874788111651035E-2</v>
       </c>
-      <c r="W61" s="16"/>
-    </row>
-    <row r="79" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G79" s="42"/>
-      <c r="W79" s="42"/>
-    </row>
-    <row r="80" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="16"/>
-      <c r="W80" s="16"/>
+      <c r="W63" s="16"/>
+    </row>
+    <row r="81" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="42"/>
+      <c r="W81" s="42"/>
+    </row>
+    <row r="82" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="16"/>
+      <c r="W82" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25732,7 +26427,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C53" formula="1"/>
+    <ignoredError sqref="C55" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -25749,7 +26444,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -25797,13 +26492,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -25814,13 +26509,13 @@
         <v>154.550003</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -25834,7 +26529,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -25849,7 +26544,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -40162,8 +40857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M1513"/>
   <sheetViews>
-    <sheetView topLeftCell="A1481" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C1513"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40180,25 +40875,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
+        <v>93</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -40230,22 +40925,22 @@
         <v>4.7399811002151182E-3</v>
       </c>
       <c r="H3" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="M3" s="70" t="s">
         <v>100</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="70" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -40657,7 +41352,7 @@
       </c>
       <c r="H15" s="82"/>
       <c r="I15" s="83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J15" s="83">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -40701,10 +41396,10 @@
         <f t="shared" si="0"/>
         <v>-3.0540383040995378E-2</v>
       </c>
-      <c r="H17" s="138" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="139"/>
+      <c r="H17" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="140"/>
       <c r="M17" s="86"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -40718,8 +41413,8 @@
         <f t="shared" si="0"/>
         <v>-1.3511927109754462E-2</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
       <c r="M18" s="86"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -40734,7 +41429,7 @@
         <v>1.520020947743439E-2</v>
       </c>
       <c r="H19" s="87" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I19" s="124">
         <f>AVERAGE(D:D)</f>
@@ -40754,7 +41449,7 @@
         <v>-4.0002951179929358E-3</v>
       </c>
       <c r="H20" s="87" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I20" s="124">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -40774,7 +41469,7 @@
         <v>2.2271268197643579E-2</v>
       </c>
       <c r="H21" s="87" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I21" s="124">
         <f>MEDIAN(D:D)</f>
@@ -40794,7 +41489,7 @@
         <v>-6.0034563179827138E-3</v>
       </c>
       <c r="H22" s="87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I22" s="124">
         <f>MODE(D:D)</f>
@@ -40814,7 +41509,7 @@
         <v>2.4998484816716626E-2</v>
       </c>
       <c r="H23" s="87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I23" s="124">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -40834,7 +41529,7 @@
         <v>9.6230257656837459E-4</v>
       </c>
       <c r="H24" s="87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I24" s="124">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -40854,7 +41549,7 @@
         <v>3.8374402160383347E-2</v>
       </c>
       <c r="H25" s="87" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I25" s="125">
         <f>KURT(D:D)</f>
@@ -40874,7 +41569,7 @@
         <v>-4.0475494268190637E-3</v>
       </c>
       <c r="H26" s="87" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I26" s="125">
         <f>SKEW(D:D)</f>
@@ -40894,7 +41589,7 @@
         <v>5.7688358622345559E-2</v>
       </c>
       <c r="H27" s="87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I27" s="124">
         <f>I29-I28</f>
@@ -40914,7 +41609,7 @@
         <v>1.2938186041599575E-2</v>
       </c>
       <c r="H28" s="87" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I28" s="124">
         <f>MIN(D:D)</f>
@@ -40934,7 +41629,7 @@
         <v>4.9776034836995775E-2</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I29" s="124">
         <f>MAX(D:D)</f>
@@ -40954,7 +41649,7 @@
         <v>-1.2299892800841983E-2</v>
       </c>
       <c r="H30" s="87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I30" s="125">
         <f>SUM(D:D)</f>
@@ -40974,7 +41669,7 @@
         <v>-4.3848589476715105E-2</v>
       </c>
       <c r="H31" s="88" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I31" s="65">
         <f>COUNT(D:D)</f>
@@ -41009,16 +41704,16 @@
       </c>
       <c r="H33" s="91"/>
       <c r="I33" s="92" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K33" s="92" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L33" s="93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M33" s="86"/>
     </row>
@@ -41034,7 +41729,7 @@
         <v>4.1487933818467049E-3</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I34" s="80">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -41066,7 +41761,7 @@
         <v>-3.9341788990534199E-2</v>
       </c>
       <c r="H35" s="94" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I35" s="80">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -41098,7 +41793,7 @@
         <v>-2.7566789559254623E-3</v>
       </c>
       <c r="H36" s="95" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I36" s="83">
         <v>0</v>
@@ -41147,22 +41842,22 @@
         <v>-1.2586392677875979E-2</v>
       </c>
       <c r="H38" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="92" t="s">
+      <c r="M38" s="93" t="s">
         <v>125</v>
-      </c>
-      <c r="J38" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="M38" s="93" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -41292,14 +41987,14 @@
         <f t="shared" si="0"/>
         <v>3.2654271911855881E-2</v>
       </c>
-      <c r="H43" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
+      <c r="H43" s="143" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="145"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -41810,7 +42505,7 @@
         <v>3.1465009814832579E-2</v>
       </c>
       <c r="H60" s="113" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I60" s="114"/>
     </row>
@@ -41826,7 +42521,7 @@
         <v>-2.2872275183911439E-2</v>
       </c>
       <c r="H61" s="115" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I61" s="116"/>
     </row>
@@ -41855,7 +42550,7 @@
         <v>-1.0678183785634565E-2</v>
       </c>
       <c r="H63" s="113" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I63" s="118"/>
     </row>
@@ -41871,7 +42566,7 @@
         <v>-6.3257451053954084E-3</v>
       </c>
       <c r="H64" s="119" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I64" s="120">
         <f>I63*(1-I60)</f>
@@ -41890,7 +42585,7 @@
         <v>-2.7133849440581503E-3</v>
       </c>
       <c r="H65" s="115" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I65" s="121">
         <f>I63*(1+I61)</f>
